--- a/OC_Santi_FI0923_FF0924_v1.xlsx
+++ b/OC_Santi_FI0923_FF0924_v1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo Thinkpad E14\Documents\ARKAD\MODEL-VOLUMEN\models\Open-closeVolum_v3\out\accuracy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo Thinkpad E14\Documents\GitHub\Arkad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A683C8C5-1693-48B1-BC4E-326945C86E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64FD6DF6-2B2B-4448-9DE2-E4B25FE80769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -39,13 +39,16 @@
   <si>
     <t>pred</t>
   </si>
+  <si>
+    <t>threshold</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -69,7 +72,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -92,16 +95,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G253"/>
+  <dimension ref="A1:H253"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -419,7 +436,7 @@
     <col min="7" max="7" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,8 +455,11 @@
       <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -461,8 +481,11 @@
       <c r="G2">
         <v>445.52</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -485,7 +508,7 @@
         <v>448.45</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -508,7 +531,7 @@
         <v>445.99</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -531,7 +554,7 @@
         <v>446.51</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -554,7 +577,7 @@
         <v>450.36</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -577,7 +600,7 @@
         <v>443.37</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -600,7 +623,7 @@
         <v>443.63</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -623,7 +646,7 @@
         <v>442.71</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -646,7 +669,7 @@
         <v>438.64</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -669,7 +692,7 @@
         <v>431.39</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -692,7 +715,7 @@
         <v>430.42</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -715,7 +738,7 @@
         <v>432.23</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -738,7 +761,7 @@
         <v>425.88</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -761,7 +784,7 @@
         <v>426.05</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
